--- a/2.Excel/hands-on/6.Funcoes_Mercado/11.DESLOC/1.DESLOC.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/11.DESLOC/1.DESLOC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\11.DESLOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C3E114-67FC-42C0-B3BB-A6EAC8541D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46762BB9-992B-4EBD-9D43-9F6E0D2306B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12372" yWindow="84" windowWidth="10800" windowHeight="12792" activeTab="1" xr2:uid="{C3784EBB-09BF-477B-9CB0-C14E8EE5D46B}"/>
+    <workbookView xWindow="12372" yWindow="84" windowWidth="10800" windowHeight="12792" firstSheet="2" activeTab="3" xr2:uid="{C3784EBB-09BF-477B-9CB0-C14E8EE5D46B}"/>
   </bookViews>
   <sheets>
     <sheet name="DESLOC1" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B1136E-754E-4280-901A-BBABC8B877E8}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,7 +1241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898E6AFE-48E2-4D7F-A388-E1EF0FB9FA17}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1384,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1414,7 +1416,7 @@
       </c>
       <c r="J6" s="8">
         <f ca="1">SUM(OFFSET(B1:G1,MATCH(J5,A2:A21,0),0))</f>
-        <v>27785</v>
+        <v>27899</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1789,14 +1791,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76432A4A-E783-42D8-A1BF-7DE4A5EEBAAF}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="7" width="10.6640625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="7" width="10.6640625" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10" customWidth="1" collapsed="1"/>
     <col min="10" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1826,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="14">
-        <v>43891</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1855,8 +1859,8 @@
         <v>3</v>
       </c>
       <c r="J2" s="12" cm="1">
-        <f t="array" aca="1" ref="J2:J21" ca="1">OFFSET(A2,0,MATCH(J1,B1:G1,0),20,1)</f>
-        <v>7459</v>
+        <f t="array" aca="1" ref="J2:J21" ca="1">OFFSET(A2:A21,0,MATCH(J1,B1:G1,0))</f>
+        <v>9978</v>
       </c>
       <c r="K2" s="12"/>
     </row>
@@ -1887,7 +1891,7 @@
       </c>
       <c r="J3" s="12">
         <f ca="1"/>
-        <v>7093</v>
+        <v>2285</v>
       </c>
       <c r="K3" s="12"/>
     </row>
@@ -1918,7 +1922,7 @@
       </c>
       <c r="J4" s="12">
         <f ca="1"/>
-        <v>3212</v>
+        <v>4756</v>
       </c>
       <c r="K4" s="12"/>
     </row>
@@ -1949,7 +1953,7 @@
       </c>
       <c r="J5" s="12">
         <f ca="1"/>
-        <v>8234</v>
+        <v>2957</v>
       </c>
       <c r="K5" s="12"/>
     </row>
@@ -1980,7 +1984,7 @@
       </c>
       <c r="J6" s="12">
         <f ca="1"/>
-        <v>9207</v>
+        <v>4759</v>
       </c>
       <c r="K6" s="12"/>
     </row>
@@ -2011,7 +2015,7 @@
       </c>
       <c r="J7" s="12">
         <f ca="1"/>
-        <v>9340</v>
+        <v>1459</v>
       </c>
       <c r="K7" s="12"/>
     </row>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="J8" s="12">
         <f ca="1"/>
-        <v>5134</v>
+        <v>2514</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -2073,7 +2077,7 @@
       </c>
       <c r="J9" s="12">
         <f ca="1"/>
-        <v>1214</v>
+        <v>3946</v>
       </c>
       <c r="K9" s="12"/>
     </row>
@@ -2104,7 +2108,7 @@
       </c>
       <c r="J10" s="12">
         <f ca="1"/>
-        <v>5341</v>
+        <v>5349</v>
       </c>
       <c r="K10" s="12"/>
     </row>
@@ -2135,7 +2139,7 @@
       </c>
       <c r="J11" s="12">
         <f ca="1"/>
-        <v>8514</v>
+        <v>5213</v>
       </c>
       <c r="K11" s="12"/>
     </row>
@@ -2166,7 +2170,7 @@
       </c>
       <c r="J12" s="12">
         <f ca="1"/>
-        <v>6606</v>
+        <v>7754</v>
       </c>
       <c r="K12" s="12"/>
     </row>
@@ -2197,7 +2201,7 @@
       </c>
       <c r="J13" s="12">
         <f ca="1"/>
-        <v>7619</v>
+        <v>9668</v>
       </c>
       <c r="K13" s="12"/>
     </row>
@@ -2228,7 +2232,7 @@
       </c>
       <c r="J14" s="12">
         <f ca="1"/>
-        <v>6017</v>
+        <v>3093</v>
       </c>
       <c r="K14" s="12"/>
     </row>
@@ -2259,7 +2263,7 @@
       </c>
       <c r="J15" s="12">
         <f ca="1"/>
-        <v>3903</v>
+        <v>2452</v>
       </c>
       <c r="K15" s="12"/>
     </row>
@@ -2290,7 +2294,7 @@
       </c>
       <c r="J16" s="12">
         <f ca="1"/>
-        <v>3047</v>
+        <v>5421</v>
       </c>
       <c r="K16" s="12"/>
     </row>
@@ -2321,7 +2325,7 @@
       </c>
       <c r="J17" s="12">
         <f ca="1"/>
-        <v>2026</v>
+        <v>3048</v>
       </c>
       <c r="K17" s="12"/>
     </row>
@@ -2352,7 +2356,7 @@
       </c>
       <c r="J18" s="12">
         <f ca="1"/>
-        <v>4354</v>
+        <v>4492</v>
       </c>
       <c r="K18" s="12"/>
     </row>
@@ -2383,7 +2387,7 @@
       </c>
       <c r="J19" s="12">
         <f ca="1"/>
-        <v>6127</v>
+        <v>1835</v>
       </c>
       <c r="K19" s="12"/>
     </row>
@@ -2414,7 +2418,7 @@
       </c>
       <c r="J20" s="12">
         <f ca="1"/>
-        <v>1535</v>
+        <v>9961</v>
       </c>
       <c r="K20" s="12"/>
     </row>
@@ -2445,7 +2449,7 @@
       </c>
       <c r="J21" s="12">
         <f ca="1"/>
-        <v>1805</v>
+        <v>6518</v>
       </c>
       <c r="K21" s="12"/>
     </row>
@@ -2472,7 +2476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31B1128-45F1-419F-A495-5046DFEF50D3}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/2.Excel/hands-on/6.Funcoes_Mercado/11.DESLOC/1.DESLOC.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/11.DESLOC/1.DESLOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\11.DESLOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46762BB9-992B-4EBD-9D43-9F6E0D2306B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC6AF1-6ABC-42AB-89B0-5B403E0EC000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12372" yWindow="84" windowWidth="10800" windowHeight="12792" firstSheet="2" activeTab="3" xr2:uid="{C3784EBB-09BF-477B-9CB0-C14E8EE5D46B}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
   <si>
     <t>Total</t>
   </si>
@@ -281,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,12 +297,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -378,7 +372,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2476,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31B1128-45F1-419F-A495-5046DFEF50D3}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,12 +2489,9 @@
         <v>23</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2513,8 +2503,8 @@
         <v>30</v>
       </c>
       <c r="D2" t="str" cm="1">
-        <f t="array" aca="1" ref="D2:D8" ca="1">OFFSET(A1,MATCH(D1,A2:A27,0),1,COUNTIFS(A:A,D1),1)</f>
-        <v>Pará</v>
+        <f t="array" aca="1" ref="D2:D10" ca="1">OFFSET(A1,MATCH(D1,A2:A27,0),1,COUNTIF(A:A,D1))</f>
+        <v>Bahia</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
@@ -2529,7 +2519,7 @@
       </c>
       <c r="D3" t="str">
         <f ca="1"/>
-        <v>Tocantins</v>
+        <v>Piauí</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
@@ -2544,7 +2534,7 @@
       </c>
       <c r="D4" t="str">
         <f ca="1"/>
-        <v>Amazonas</v>
+        <v>Paraíba</v>
       </c>
       <c r="J4" t="s">
         <v>25</v>
@@ -2559,7 +2549,7 @@
       </c>
       <c r="D5" t="str">
         <f ca="1"/>
-        <v>Rondônia</v>
+        <v>Maranhão</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
@@ -2574,7 +2564,7 @@
       </c>
       <c r="D6" t="str">
         <f ca="1"/>
-        <v>Acre</v>
+        <v>Pernambuco</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2586,7 +2576,7 @@
       </c>
       <c r="D7" t="str">
         <f ca="1"/>
-        <v>Amapá</v>
+        <v>Ceará</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2598,7 +2588,7 @@
       </c>
       <c r="D8" t="str">
         <f ca="1"/>
-        <v>Roraima</v>
+        <v>Rio Grande do Norte</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2608,6 +2598,10 @@
       <c r="B9" t="s">
         <v>37</v>
       </c>
+      <c r="D9" t="str">
+        <f ca="1"/>
+        <v>Alagoas</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2616,6 +2610,10 @@
       <c r="B10" t="s">
         <v>38</v>
       </c>
+      <c r="D10" t="str">
+        <f ca="1"/>
+        <v>Sergipe</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2754,12 +2752,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{9A08786D-1F8E-4086-AE35-22F2B4820A34}">
       <formula1>$J$1:$J$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{4FFD6F3D-73C4-4B68-B08A-681EDDA25116}">
-      <formula1>OFFSET(A1,MATCH(D1,A2:A27,0),1,COUNTIFS(A:A,D1),1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
